--- a/data/transformed_data_2016.xlsx
+++ b/data/transformed_data_2016.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>582100.7944256045</v>
+        <v>590397.8272256046</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>69631.94</v>
+        <v>59883.4684</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10367.42</v>
+        <v>8915.9812</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16729.86577524893</v>
+        <v>16502.25097524893</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>47.04</v>
+        <v>40.4544</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1672.86</v>
+        <v>1438.6596</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7844,7 +7844,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16432.98178719772</v>
+        <v>17148.75418719772</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8180,7 +8180,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>13264.3</v>
+        <v>11407.298</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8348,7 +8348,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8151.639999999999</v>
+        <v>7010.4104</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4010.812989473684</v>
+        <v>3955.795789473683</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>772.24</v>
+        <v>664.1264</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1165.22</v>
+        <v>1002.0892</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13330,7 +13330,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16220.73754139403</v>
+        <v>16960.79434139403</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13666,7 +13666,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>15191.96</v>
+        <v>13065.0856</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13834,7 +13834,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9905.84</v>
+        <v>8519.0224</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16059,7 +16059,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22884.7052</v>
+        <v>22745.996</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16395,7 +16395,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1099.56</v>
+        <v>945.6215999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16563,7 +16563,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2090.34</v>
+        <v>1797.6924</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18746,7 +18746,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15360.38622930299</v>
+        <v>14790.32022930299</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19082,7 +19082,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8072.26</v>
+        <v>6942.143599999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19250,7 +19250,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12144.16</v>
+        <v>10443.9776</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21489,7 +21489,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8772.781007112375</v>
+        <v>9087.243407112375</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21825,7 +21825,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9392.32</v>
+        <v>8077.3952</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -21993,7 +21993,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7146.16</v>
+        <v>6145.6976</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24232,7 +24232,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16535.53135704125</v>
+        <v>15814.40815704125</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24568,7 +24568,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6438.599999999999</v>
+        <v>5537.196</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24736,7 +24736,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11589.48</v>
+        <v>9966.952800000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -26975,7 +26975,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13499.35613655761</v>
+        <v>13111.90333655761</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27311,7 +27311,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1773.8</v>
+        <v>1525.468</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27479,7 +27479,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4541.32</v>
+        <v>3905.5352</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29704,7 +29704,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8746.470669701281</v>
+        <v>9109.090269701281</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30040,7 +30040,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8529.92</v>
+        <v>7335.731199999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30208,7 +30208,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5939.78</v>
+        <v>5108.2108</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32447,7 +32447,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>88377.24753968706</v>
+        <v>88256.09993968705</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32783,7 +32783,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4873.54</v>
+        <v>4191.2444</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32951,7 +32951,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5738.88</v>
+        <v>4935.436799999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35162,7 +35162,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11409.39255135135</v>
+        <v>11283.03135135135</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35498,7 +35498,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>124.46</v>
+        <v>107.0356</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35666,7 +35666,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1027.04</v>
+        <v>883.2543999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37891,7 +37891,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11016.34351920342</v>
+        <v>10516.66111920341</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38227,7 +38227,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>686.98</v>
+        <v>590.8028</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38395,7 +38395,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4256.14</v>
+        <v>3660.2804</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40620,7 +40620,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4002.349274537695</v>
+        <v>3967.774874537695</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40956,7 +40956,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3685.78</v>
+        <v>3169.7708</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41124,7 +41124,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3932.74</v>
+        <v>3382.1564</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43363,7 +43363,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3112.144485917495</v>
+        <v>3058.087685917496</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43699,7 +43699,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7491.12</v>
+        <v>6442.3632</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43867,7 +43867,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7877.24</v>
+        <v>6774.4264</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46106,7 +46106,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14412.03838918919</v>
+        <v>13563.59358918919</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46442,7 +46442,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5863.34</v>
+        <v>5042.4724</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46610,7 +46610,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11923.66</v>
+        <v>10254.3476</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48849,7 +48849,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4062.472985490754</v>
+        <v>3997.165785490753</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49185,7 +49185,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5764.36</v>
+        <v>4957.3496</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49353,7 +49353,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6230.84</v>
+        <v>5358.5224</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51592,7 +51592,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9590.168338549076</v>
+        <v>8928.452738549076</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51928,7 +51928,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>850.64</v>
+        <v>731.5504</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52096,7 +52096,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5577.18</v>
+        <v>4796.374800000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54335,7 +54335,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3933.547168705547</v>
+        <v>3957.145568705548</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54671,7 +54671,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1660.12</v>
+        <v>1427.7032</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54839,7 +54839,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1491.56</v>
+        <v>1282.7416</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57078,7 +57078,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10433.77915960171</v>
+        <v>10335.81835960171</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57414,7 +57414,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1956.08</v>
+        <v>1682.2288</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57582,7 +57582,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2655.8</v>
+        <v>2283.988</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59807,7 +59807,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15687.35791806543</v>
+        <v>15977.26151806543</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60143,7 +60143,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5370.4</v>
+        <v>4618.544</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60311,7 +60311,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3299.66</v>
+        <v>2837.7076</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62550,7 +62550,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>39588.48909075391</v>
+        <v>41679.27989075391</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62886,7 +62886,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>22207.78</v>
+        <v>19098.6908</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63054,7 +63054,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7273.559999999999</v>
+        <v>6255.2616</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65293,7 +65293,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3636.908027311521</v>
+        <v>3560.350427311521</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65629,7 +65629,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2949.8</v>
+        <v>2536.828</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65797,7 +65797,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3496.64</v>
+        <v>3007.1104</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68036,7 +68036,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>100924.5585456615</v>
+        <v>97696.65414566147</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68372,7 +68372,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>20371.26</v>
+        <v>17519.2836</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68540,7 +68540,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>43427.72</v>
+        <v>37347.8392</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70779,7 +70779,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>37284.86314537696</v>
+        <v>36636.18154537695</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71115,7 +71115,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1820.84</v>
+        <v>1565.9224</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71283,7 +71283,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6454.28</v>
+        <v>5550.6808</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73522,7 +73522,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>34665.6739658606</v>
+        <v>36786.6487658606</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73858,7 +73858,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>21713.86</v>
+        <v>18673.9196</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -74026,7 +74026,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6564.04</v>
+        <v>5645.0744</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76265,7 +76265,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>24153.23741337127</v>
+        <v>25450.32621337127</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76601,7 +76601,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>32331.18</v>
+        <v>27804.8148</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76769,7 +76769,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>23066.26</v>
+        <v>19836.9836</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -79008,7 +79008,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>27785.28617411095</v>
+        <v>28053.37497411095</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79344,7 +79344,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6338.64</v>
+        <v>5451.230399999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79512,7 +79512,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4423.72</v>
+        <v>3804.3992</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81751,7 +81751,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16380.09412859175</v>
+        <v>16291.18852859175</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82087,7 +82087,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2611.7</v>
+        <v>2246.062</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82255,7 +82255,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3246.74</v>
+        <v>2792.1964</v>
       </c>
     </row>
     <row r="168" spans="1:4">
